--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -90461,7 +90461,9 @@
       <c r="Q1607" t="n">
         <v>0</v>
       </c>
-      <c r="R1607" t="inlineStr"/>
+      <c r="R1607" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1609"/>
+  <dimension ref="A1:R1611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90573,7 +90573,117 @@
       <c r="Q1609" t="n">
         <v>0</v>
       </c>
-      <c r="R1609" t="inlineStr"/>
+      <c r="R1609" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="2" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>567</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>579.9500122070312</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>563.6500244140625</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>578.4500122070312</v>
+      </c>
+      <c r="F1610" t="n">
+        <v>578.4500122070312</v>
+      </c>
+      <c r="G1610" t="n">
+        <v>5797999</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1610" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1610" t="inlineStr"/>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>578.4500122070312</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>578.4500122070312</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>560.9000244140625</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>561.8499755859375</v>
+      </c>
+      <c r="F1611" t="n">
+        <v>561.8499755859375</v>
+      </c>
+      <c r="G1611" t="n">
+        <v>6257752</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1611" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1611" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1612"/>
+  <dimension ref="A1:R1613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90741,7 +90741,63 @@
       <c r="Q1612" t="n">
         <v>0</v>
       </c>
-      <c r="R1612" t="inlineStr"/>
+      <c r="R1612" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>551.9000244140625</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>556.2999877929688</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>546.5499877929688</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>549.8499755859375</v>
+      </c>
+      <c r="F1613" t="n">
+        <v>549.8499755859375</v>
+      </c>
+      <c r="G1613" t="n">
+        <v>9706803</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1613" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1613" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -90797,7 +90797,9 @@
       <c r="Q1613" t="n">
         <v>0</v>
       </c>
-      <c r="R1613" t="inlineStr"/>
+      <c r="R1613" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -90853,7 +90853,9 @@
       <c r="Q1614" t="n">
         <v>0</v>
       </c>
-      <c r="R1614" t="inlineStr"/>
+      <c r="R1614" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -91133,7 +91133,9 @@
       <c r="Q1619" t="n">
         <v>0</v>
       </c>
-      <c r="R1619" t="inlineStr"/>
+      <c r="R1619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1620">
       <c r="A1620" s="2" t="n">
@@ -91187,7 +91189,9 @@
       <c r="Q1620" t="n">
         <v>0</v>
       </c>
-      <c r="R1620" t="inlineStr"/>
+      <c r="R1620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1621">
       <c r="A1621" s="2" t="n">
@@ -91241,7 +91245,9 @@
       <c r="Q1621" t="n">
         <v>0</v>
       </c>
-      <c r="R1621" t="inlineStr"/>
+      <c r="R1621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1622">
       <c r="A1622" s="2" t="n">
@@ -91295,7 +91301,9 @@
       <c r="Q1622" t="n">
         <v>0</v>
       </c>
-      <c r="R1622" t="inlineStr"/>
+      <c r="R1622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1623">
       <c r="A1623" s="2" t="n">
@@ -91349,7 +91357,9 @@
       <c r="Q1623" t="n">
         <v>0</v>
       </c>
-      <c r="R1623" t="inlineStr"/>
+      <c r="R1623" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1623"/>
+  <dimension ref="A1:R1624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91361,6 +91361,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1624">
+      <c r="A1624" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>596.8499755859375</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>605</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>591.7999877929688</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>601.2000122070312</v>
+      </c>
+      <c r="F1624" t="n">
+        <v>601.2000122070312</v>
+      </c>
+      <c r="G1624" t="n">
+        <v>5119835</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1624" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1624" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1624" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1624"/>
+  <dimension ref="A1:R1625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90901,7 +90901,7 @@
         <v>23</v>
       </c>
       <c r="O1615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1615" t="n">
         <v>0</v>
@@ -91413,7 +91413,63 @@
       <c r="Q1624" t="n">
         <v>0</v>
       </c>
-      <c r="R1624" t="inlineStr"/>
+      <c r="R1624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>602.0999755859375</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>605.1500244140625</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>592.3499755859375</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>596.2000122070312</v>
+      </c>
+      <c r="F1625" t="n">
+        <v>596.2000122070312</v>
+      </c>
+      <c r="G1625" t="n">
+        <v>4453673</v>
+      </c>
+      <c r="H1625" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1625" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1625" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1625" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1625"/>
+  <dimension ref="A1:R1632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91469,7 +91469,387 @@
       <c r="Q1625" t="n">
         <v>0</v>
       </c>
-      <c r="R1625" t="inlineStr"/>
+      <c r="R1625" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>596.2000122070312</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>597.5</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>582.7000122070312</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>590.0999755859375</v>
+      </c>
+      <c r="F1626" t="n">
+        <v>588.0999755859375</v>
+      </c>
+      <c r="G1626" t="n">
+        <v>6133067</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1626" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1626" t="inlineStr"/>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>588</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>592.5999755859375</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>580</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>580.9500122070312</v>
+      </c>
+      <c r="F1627" t="n">
+        <v>580.9500122070312</v>
+      </c>
+      <c r="G1627" t="n">
+        <v>7263396</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1627" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1627" t="inlineStr"/>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>580</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>582.4500122070312</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>575.6500244140625</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>579.5</v>
+      </c>
+      <c r="F1628" t="n">
+        <v>579.5</v>
+      </c>
+      <c r="G1628" t="n">
+        <v>3226301</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1628" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1628" t="inlineStr"/>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>579</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>592.25</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>576.9500122070312</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>590.9500122070312</v>
+      </c>
+      <c r="F1629" t="n">
+        <v>590.9500122070312</v>
+      </c>
+      <c r="G1629" t="n">
+        <v>6593288</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1629" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1629" t="inlineStr"/>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>591.6500244140625</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>599</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>587.2000122070312</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>589.0499877929688</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>589.0499877929688</v>
+      </c>
+      <c r="G1630" t="n">
+        <v>3672989</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1630" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1630" t="inlineStr"/>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>589.0499877929688</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>595</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>586.5999755859375</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>593.25</v>
+      </c>
+      <c r="F1631" t="n">
+        <v>593.25</v>
+      </c>
+      <c r="G1631" t="n">
+        <v>4772196</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1631" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1631" t="inlineStr"/>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>594</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>599.7999877929688</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>590</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>595.0499877929688</v>
+      </c>
+      <c r="F1632" t="n">
+        <v>595.0499877929688</v>
+      </c>
+      <c r="G1632" t="n">
+        <v>3645775</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1632" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1632" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -91525,7 +91525,9 @@
       <c r="Q1626" t="n">
         <v>0</v>
       </c>
-      <c r="R1626" t="inlineStr"/>
+      <c r="R1626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1627">
       <c r="A1627" s="2" t="n">
@@ -91579,7 +91581,9 @@
       <c r="Q1627" t="n">
         <v>0</v>
       </c>
-      <c r="R1627" t="inlineStr"/>
+      <c r="R1627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1628">
       <c r="A1628" s="2" t="n">
@@ -91633,7 +91637,9 @@
       <c r="Q1628" t="n">
         <v>0</v>
       </c>
-      <c r="R1628" t="inlineStr"/>
+      <c r="R1628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1629">
       <c r="A1629" s="2" t="n">
@@ -91687,7 +91693,9 @@
       <c r="Q1629" t="n">
         <v>0</v>
       </c>
-      <c r="R1629" t="inlineStr"/>
+      <c r="R1629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1630">
       <c r="A1630" s="2" t="n">
@@ -91741,7 +91749,9 @@
       <c r="Q1630" t="n">
         <v>0</v>
       </c>
-      <c r="R1630" t="inlineStr"/>
+      <c r="R1630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1631">
       <c r="A1631" s="2" t="n">
@@ -91795,7 +91805,9 @@
       <c r="Q1631" t="n">
         <v>0</v>
       </c>
-      <c r="R1631" t="inlineStr"/>
+      <c r="R1631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1632">
       <c r="A1632" s="2" t="n">
@@ -91849,7 +91861,9 @@
       <c r="Q1632" t="n">
         <v>0</v>
       </c>
-      <c r="R1632" t="inlineStr"/>
+      <c r="R1632" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1632"/>
+  <dimension ref="A1:R1635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91461,7 +91461,7 @@
         <v>25</v>
       </c>
       <c r="O1625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1625" t="n">
         <v>0</v>
@@ -91864,6 +91864,168 @@
       <c r="R1632" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>590.1500244140625</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>603.0499877929688</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>589.5999755859375</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>600.75</v>
+      </c>
+      <c r="F1633" t="n">
+        <v>600.75</v>
+      </c>
+      <c r="G1633" t="n">
+        <v>3342913</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1633" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1633" t="inlineStr"/>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>603.7000122070312</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>603.75</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>586.5</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>589.7999877929688</v>
+      </c>
+      <c r="F1634" t="n">
+        <v>589.7999877929688</v>
+      </c>
+      <c r="G1634" t="n">
+        <v>6477279</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1634" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1634" t="inlineStr"/>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>592.4000244140625</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>598.8499755859375</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>590.5</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>596.1500244140625</v>
+      </c>
+      <c r="F1635" t="n">
+        <v>596.1500244140625</v>
+      </c>
+      <c r="G1635" t="n">
+        <v>2134042</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1635" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1635" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1635"/>
+  <dimension ref="A1:R1646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91917,7 +91917,9 @@
       <c r="Q1633" t="n">
         <v>0</v>
       </c>
-      <c r="R1633" t="inlineStr"/>
+      <c r="R1633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1634">
       <c r="A1634" s="2" t="n">
@@ -91971,7 +91973,9 @@
       <c r="Q1634" t="n">
         <v>0</v>
       </c>
-      <c r="R1634" t="inlineStr"/>
+      <c r="R1634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1635">
       <c r="A1635" s="2" t="n">
@@ -92025,7 +92029,603 @@
       <c r="Q1635" t="n">
         <v>0</v>
       </c>
-      <c r="R1635" t="inlineStr"/>
+      <c r="R1635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>596</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>607.2999877929688</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>594.2999877929688</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>603.9500122070312</v>
+      </c>
+      <c r="F1636" t="n">
+        <v>603.9500122070312</v>
+      </c>
+      <c r="G1636" t="n">
+        <v>5028421</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1636" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1636" t="inlineStr"/>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>606.2000122070312</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>608.7999877929688</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>600.6500244140625</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>607.3499755859375</v>
+      </c>
+      <c r="F1637" t="n">
+        <v>607.3499755859375</v>
+      </c>
+      <c r="G1637" t="n">
+        <v>3493050</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1637" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1637" t="inlineStr"/>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>609</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>622.0499877929688</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>608.5999755859375</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>620.9000244140625</v>
+      </c>
+      <c r="F1638" t="n">
+        <v>620.9000244140625</v>
+      </c>
+      <c r="G1638" t="n">
+        <v>6800857</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1638" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1638" t="inlineStr"/>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>622</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>629.3499755859375</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>620.9000244140625</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>623.6500244140625</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>623.6500244140625</v>
+      </c>
+      <c r="G1639" t="n">
+        <v>5000797</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1639" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1639" t="inlineStr"/>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>624</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>640.75</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>615.5999755859375</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>632.75</v>
+      </c>
+      <c r="F1640" t="n">
+        <v>632.75</v>
+      </c>
+      <c r="G1640" t="n">
+        <v>6186968</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1640" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1640" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1640" t="inlineStr"/>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>635.9500122070312</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>636.5999755859375</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>629.2999877929688</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>634.25</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>634.25</v>
+      </c>
+      <c r="G1641" t="n">
+        <v>3573349</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1641" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1641" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1641" t="inlineStr"/>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>634</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>636.4000244140625</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>627.0999755859375</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>635.5499877929688</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>635.5499877929688</v>
+      </c>
+      <c r="G1642" t="n">
+        <v>2643647</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1642" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1642" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1642" t="inlineStr"/>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>635.5499877929688</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>648</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>630.5</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>638.0499877929688</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>638.0499877929688</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>6951688</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1643" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1643" t="inlineStr"/>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>642</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>655</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>633.3499755859375</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>646.75</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>646.75</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>9167071</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1644" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1644" t="inlineStr"/>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>646.75</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>651.4000244140625</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>641.0999755859375</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>648.9000244140625</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>648.9000244140625</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>3975243</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1645" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1645" t="inlineStr"/>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>644.6500244140625</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>646</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>634.1500244140625</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>635.9000244140625</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>635.9000244140625</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>2495967</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1646" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1646" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1646"/>
+  <dimension ref="A1:R1656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92085,7 +92085,9 @@
       <c r="Q1636" t="n">
         <v>0</v>
       </c>
-      <c r="R1636" t="inlineStr"/>
+      <c r="R1636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1637">
       <c r="A1637" s="2" t="n">
@@ -92139,7 +92141,9 @@
       <c r="Q1637" t="n">
         <v>0</v>
       </c>
-      <c r="R1637" t="inlineStr"/>
+      <c r="R1637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1638">
       <c r="A1638" s="2" t="n">
@@ -92193,7 +92197,9 @@
       <c r="Q1638" t="n">
         <v>0</v>
       </c>
-      <c r="R1638" t="inlineStr"/>
+      <c r="R1638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1639">
       <c r="A1639" s="2" t="n">
@@ -92247,7 +92253,9 @@
       <c r="Q1639" t="n">
         <v>0</v>
       </c>
-      <c r="R1639" t="inlineStr"/>
+      <c r="R1639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1640">
       <c r="A1640" s="2" t="n">
@@ -92301,7 +92309,9 @@
       <c r="Q1640" t="n">
         <v>0</v>
       </c>
-      <c r="R1640" t="inlineStr"/>
+      <c r="R1640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1641">
       <c r="A1641" s="2" t="n">
@@ -92355,7 +92365,9 @@
       <c r="Q1641" t="n">
         <v>0</v>
       </c>
-      <c r="R1641" t="inlineStr"/>
+      <c r="R1641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1642">
       <c r="A1642" s="2" t="n">
@@ -92409,7 +92421,9 @@
       <c r="Q1642" t="n">
         <v>0</v>
       </c>
-      <c r="R1642" t="inlineStr"/>
+      <c r="R1642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1643">
       <c r="A1643" s="2" t="n">
@@ -92463,7 +92477,9 @@
       <c r="Q1643" t="n">
         <v>0</v>
       </c>
-      <c r="R1643" t="inlineStr"/>
+      <c r="R1643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1644">
       <c r="A1644" s="2" t="n">
@@ -92517,7 +92533,9 @@
       <c r="Q1644" t="n">
         <v>0</v>
       </c>
-      <c r="R1644" t="inlineStr"/>
+      <c r="R1644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1645">
       <c r="A1645" s="2" t="n">
@@ -92571,7 +92589,9 @@
       <c r="Q1645" t="n">
         <v>0</v>
       </c>
-      <c r="R1645" t="inlineStr"/>
+      <c r="R1645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1646">
       <c r="A1646" s="2" t="n">
@@ -92625,7 +92645,549 @@
       <c r="Q1646" t="n">
         <v>0</v>
       </c>
-      <c r="R1646" t="inlineStr"/>
+      <c r="R1646" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>631.9000244140625</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>641</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>628.9500122070312</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>637.4000244140625</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>637.4000244140625</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>3854108</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1647" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1647" t="inlineStr"/>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>642</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>649.7000122070312</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>623.25</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>643.9500122070312</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>643.9500122070312</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>9082995</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1648" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1648" t="inlineStr"/>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>639.5999755859375</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>675</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>639.2999877929688</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>672.7999877929688</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>672.7999877929688</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>12377638</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1649" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1649" t="inlineStr"/>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>666</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>685.5999755859375</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>665.5499877929688</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>683.1500244140625</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>683.1500244140625</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>9386864</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1650" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1650" t="inlineStr"/>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>683.1500244140625</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>709.7999877929688</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>682.0499877929688</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>703.3499755859375</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>703.3499755859375</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>8933046</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1651" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1651" t="inlineStr"/>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>703.5499877929688</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>710</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>693.75</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>696.8499755859375</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>696.8499755859375</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>4676765</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1652" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1652" t="inlineStr"/>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>696.0999755859375</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>708.3499755859375</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>683.9000244140625</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>697.2000122070312</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>697.2000122070312</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>6134510</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1653" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1653" t="inlineStr"/>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>697.2000122070312</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>719</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>693.0999755859375</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>715.5</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>715.5</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>6683204</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1654" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1654" t="inlineStr"/>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>715</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>722.5</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>710.0499877929688</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>713.5999755859375</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>713.5999755859375</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>4074648</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1655" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1655" t="inlineStr"/>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>707.5</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>712.75</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>699.0499877929688</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>707.4000244140625</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>707.4000244140625</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>2710472</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1656" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1656" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1656"/>
+  <dimension ref="A1:R1661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92701,7 +92701,9 @@
       <c r="Q1647" t="n">
         <v>0</v>
       </c>
-      <c r="R1647" t="inlineStr"/>
+      <c r="R1647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1648">
       <c r="A1648" s="2" t="n">
@@ -92755,7 +92757,9 @@
       <c r="Q1648" t="n">
         <v>0</v>
       </c>
-      <c r="R1648" t="inlineStr"/>
+      <c r="R1648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1649">
       <c r="A1649" s="2" t="n">
@@ -92809,7 +92813,9 @@
       <c r="Q1649" t="n">
         <v>0</v>
       </c>
-      <c r="R1649" t="inlineStr"/>
+      <c r="R1649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1650">
       <c r="A1650" s="2" t="n">
@@ -92863,7 +92869,9 @@
       <c r="Q1650" t="n">
         <v>0</v>
       </c>
-      <c r="R1650" t="inlineStr"/>
+      <c r="R1650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1651">
       <c r="A1651" s="2" t="n">
@@ -92917,7 +92925,9 @@
       <c r="Q1651" t="n">
         <v>0</v>
       </c>
-      <c r="R1651" t="inlineStr"/>
+      <c r="R1651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1652">
       <c r="A1652" s="2" t="n">
@@ -92971,7 +92981,9 @@
       <c r="Q1652" t="n">
         <v>0</v>
       </c>
-      <c r="R1652" t="inlineStr"/>
+      <c r="R1652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1653">
       <c r="A1653" s="2" t="n">
@@ -93025,7 +93037,9 @@
       <c r="Q1653" t="n">
         <v>0</v>
       </c>
-      <c r="R1653" t="inlineStr"/>
+      <c r="R1653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1654">
       <c r="A1654" s="2" t="n">
@@ -93079,7 +93093,9 @@
       <c r="Q1654" t="n">
         <v>0</v>
       </c>
-      <c r="R1654" t="inlineStr"/>
+      <c r="R1654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1655">
       <c r="A1655" s="2" t="n">
@@ -93133,7 +93149,9 @@
       <c r="Q1655" t="n">
         <v>0</v>
       </c>
-      <c r="R1655" t="inlineStr"/>
+      <c r="R1655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1656">
       <c r="A1656" s="2" t="n">
@@ -93187,7 +93205,279 @@
       <c r="Q1656" t="n">
         <v>0</v>
       </c>
-      <c r="R1656" t="inlineStr"/>
+      <c r="R1656" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>693</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>713.9000244140625</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>690.0499877929688</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>710.9000244140625</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>710.9000244140625</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>9327217</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1657" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1657" t="inlineStr"/>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>711.6500244140625</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>719</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>677.2999877929688</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>679.5999755859375</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>679.5999755859375</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>6106310</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1658" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1658" t="inlineStr"/>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>682.0999755859375</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>697.7000122070312</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>682.0999755859375</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>696.25</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>696.25</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>5154327</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1659" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1659" t="inlineStr"/>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>691.0999755859375</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>713.2000122070312</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>689.7000122070312</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>710.3499755859375</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>710.3499755859375</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>5953315</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1660" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1660" t="inlineStr"/>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>714.2000122070312</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>715</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>701.4500122070312</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>702.4000244140625</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>702.4000244140625</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>2848243</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1661" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1661" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1661"/>
+  <dimension ref="A1:R1665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93141,7 +93141,7 @@
         <v>31</v>
       </c>
       <c r="O1655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1655" t="n">
         <v>0</v>
@@ -93261,7 +93261,9 @@
       <c r="Q1657" t="n">
         <v>0</v>
       </c>
-      <c r="R1657" t="inlineStr"/>
+      <c r="R1657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1658">
       <c r="A1658" s="2" t="n">
@@ -93315,7 +93317,9 @@
       <c r="Q1658" t="n">
         <v>0</v>
       </c>
-      <c r="R1658" t="inlineStr"/>
+      <c r="R1658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1659">
       <c r="A1659" s="2" t="n">
@@ -93369,7 +93373,9 @@
       <c r="Q1659" t="n">
         <v>0</v>
       </c>
-      <c r="R1659" t="inlineStr"/>
+      <c r="R1659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1660">
       <c r="A1660" s="2" t="n">
@@ -93423,7 +93429,9 @@
       <c r="Q1660" t="n">
         <v>0</v>
       </c>
-      <c r="R1660" t="inlineStr"/>
+      <c r="R1660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1661">
       <c r="A1661" s="2" t="n">
@@ -93477,7 +93485,225 @@
       <c r="Q1661" t="n">
         <v>0</v>
       </c>
-      <c r="R1661" t="inlineStr"/>
+      <c r="R1661" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>698.5999755859375</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>713.6500244140625</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>692.2000122070312</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>702.4500122070312</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>702.4500122070312</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>3723417</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1662" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1662" t="inlineStr"/>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>698.0999755859375</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>707.2999877929688</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>677.5</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>685</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>685</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>5741391</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1663" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1663" t="inlineStr"/>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>686</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>690.5999755859375</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>676.4000244140625</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>686.3499755859375</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>686.3499755859375</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>2962358</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1664" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1664" t="inlineStr"/>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>664.6500244140625</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>690.5999755859375</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>664.6500244140625</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>4584025</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1665" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1665" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1665"/>
+  <dimension ref="A1:R1670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93541,7 +93541,9 @@
       <c r="Q1662" t="n">
         <v>0</v>
       </c>
-      <c r="R1662" t="inlineStr"/>
+      <c r="R1662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
@@ -93595,7 +93597,9 @@
       <c r="Q1663" t="n">
         <v>0</v>
       </c>
-      <c r="R1663" t="inlineStr"/>
+      <c r="R1663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1664">
       <c r="A1664" s="2" t="n">
@@ -93649,7 +93653,9 @@
       <c r="Q1664" t="n">
         <v>0</v>
       </c>
-      <c r="R1664" t="inlineStr"/>
+      <c r="R1664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1665">
       <c r="A1665" s="2" t="n">
@@ -93703,7 +93709,279 @@
       <c r="Q1665" t="n">
         <v>0</v>
       </c>
-      <c r="R1665" t="inlineStr"/>
+      <c r="R1665" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>689.4000244140625</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>678.5</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>685.7000122070312</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>685.7000122070312</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>2352893</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1666" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1666" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1666" t="inlineStr"/>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>687</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>713</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>684.0499877929688</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>710.5999755859375</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>710.5999755859375</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>6828474</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1667" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1667" t="inlineStr"/>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>714.3499755859375</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>727.5999755859375</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>708.6500244140625</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>724.5499877929688</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>724.5499877929688</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>6186935</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1668" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1668" t="inlineStr"/>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>726</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>729.9000244140625</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>720.0499877929688</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>726</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>726</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>3889249</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1669" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1669" t="inlineStr"/>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>725</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>730.5</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>723.4500122070312</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>729</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>729</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>3898856</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1670" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1670" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1670"/>
+  <dimension ref="A1:R1675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93701,7 +93701,7 @@
         <v>33</v>
       </c>
       <c r="O1665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1665" t="n">
         <v>0</v>
@@ -93765,7 +93765,9 @@
       <c r="Q1666" t="n">
         <v>2</v>
       </c>
-      <c r="R1666" t="inlineStr"/>
+      <c r="R1666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1667">
       <c r="A1667" s="2" t="n">
@@ -93819,7 +93821,9 @@
       <c r="Q1667" t="n">
         <v>0</v>
       </c>
-      <c r="R1667" t="inlineStr"/>
+      <c r="R1667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1668">
       <c r="A1668" s="2" t="n">
@@ -93873,7 +93877,9 @@
       <c r="Q1668" t="n">
         <v>0</v>
       </c>
-      <c r="R1668" t="inlineStr"/>
+      <c r="R1668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1669">
       <c r="A1669" s="2" t="n">
@@ -93927,7 +93933,9 @@
       <c r="Q1669" t="n">
         <v>0</v>
       </c>
-      <c r="R1669" t="inlineStr"/>
+      <c r="R1669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1670">
       <c r="A1670" s="2" t="n">
@@ -93981,7 +93989,279 @@
       <c r="Q1670" t="n">
         <v>0</v>
       </c>
-      <c r="R1670" t="inlineStr"/>
+      <c r="R1670" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>734</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>734</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>719.25</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>725.6500244140625</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>725.6500244140625</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>2131814</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1671" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1671" t="inlineStr"/>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>724</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>742.4500122070312</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>719.2999877929688</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>739.5499877929688</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>739.5499877929688</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>5627130</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1672" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1672" t="inlineStr"/>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>739.9500122070312</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>746.5499877929688</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>734.0499877929688</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>742.0999755859375</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>742.0999755859375</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>2995930</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1673" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1673" t="inlineStr"/>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>740</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>748.5</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>731.8499755859375</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>736.9000244140625</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>736.9000244140625</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>3962913</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1674" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1674" t="inlineStr"/>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>736.9000244140625</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>742.7000122070312</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>733.5</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>738.7000122070312</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>738.7000122070312</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>6226997</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1675" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1675" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1675"/>
+  <dimension ref="A1:R1680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94045,7 +94045,9 @@
       <c r="Q1671" t="n">
         <v>0</v>
       </c>
-      <c r="R1671" t="inlineStr"/>
+      <c r="R1671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1672">
       <c r="A1672" s="2" t="n">
@@ -94099,7 +94101,9 @@
       <c r="Q1672" t="n">
         <v>0</v>
       </c>
-      <c r="R1672" t="inlineStr"/>
+      <c r="R1672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1673">
       <c r="A1673" s="2" t="n">
@@ -94153,7 +94157,9 @@
       <c r="Q1673" t="n">
         <v>0</v>
       </c>
-      <c r="R1673" t="inlineStr"/>
+      <c r="R1673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
@@ -94207,7 +94213,9 @@
       <c r="Q1674" t="n">
         <v>0</v>
       </c>
-      <c r="R1674" t="inlineStr"/>
+      <c r="R1674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1675">
       <c r="A1675" s="2" t="n">
@@ -94261,7 +94269,279 @@
       <c r="Q1675" t="n">
         <v>0</v>
       </c>
-      <c r="R1675" t="inlineStr"/>
+      <c r="R1675" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>743.1500244140625</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>754</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>739.8499755859375</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>745.2999877929688</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>745.2999877929688</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>3073926</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>754</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>761.2000122070312</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>741.6500244140625</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>758.75</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>758.75</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>6268050</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>751.7000122070312</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>759.4500122070312</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>748.4000244140625</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>758.7999877929688</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>758.7999877929688</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>3031650</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1678" t="inlineStr"/>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>758</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>758.6500244140625</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>750.4000244140625</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>751.8499755859375</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>751.8499755859375</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>1759438</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>750</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>754.0999755859375</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>736.0499877929688</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>738.4000244140625</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>738.4000244140625</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>2765444</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1680" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1680"/>
+  <dimension ref="A1:R1685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94325,7 +94325,9 @@
       <c r="Q1676" t="n">
         <v>0</v>
       </c>
-      <c r="R1676" t="inlineStr"/>
+      <c r="R1676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
@@ -94379,7 +94381,9 @@
       <c r="Q1677" t="n">
         <v>0</v>
       </c>
-      <c r="R1677" t="inlineStr"/>
+      <c r="R1677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
@@ -94433,7 +94437,9 @@
       <c r="Q1678" t="n">
         <v>0</v>
       </c>
-      <c r="R1678" t="inlineStr"/>
+      <c r="R1678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
@@ -94487,7 +94493,9 @@
       <c r="Q1679" t="n">
         <v>0</v>
       </c>
-      <c r="R1679" t="inlineStr"/>
+      <c r="R1679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
@@ -94541,7 +94549,279 @@
       <c r="Q1680" t="n">
         <v>0</v>
       </c>
-      <c r="R1680" t="inlineStr"/>
+      <c r="R1680" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>735.0999755859375</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>749</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>731.25</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>735.7999877929688</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>735.7999877929688</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>2635184</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1681" t="inlineStr"/>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>730</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>732.1500244140625</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>701.2000122070312</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>702.9000244140625</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>702.9000244140625</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>7366304</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>701</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>704.2999877929688</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>696</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>700.1500244140625</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>700.1500244140625</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>4604184</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1683" t="inlineStr"/>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>703.1500244140625</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>715.9500122070312</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>698.2999877929688</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>714.5499877929688</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>714.5499877929688</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>3487862</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1684" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1684" t="inlineStr"/>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>712</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>713.75</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>703.1500244140625</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>705.4000244140625</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>705.4000244140625</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>1886220</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1685" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1685" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1685"/>
+  <dimension ref="A1:R1687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94373,7 +94373,7 @@
         <v>36</v>
       </c>
       <c r="O1677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1677" t="n">
         <v>0</v>
@@ -94605,7 +94605,9 @@
       <c r="Q1681" t="n">
         <v>0</v>
       </c>
-      <c r="R1681" t="inlineStr"/>
+      <c r="R1681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
@@ -94659,7 +94661,9 @@
       <c r="Q1682" t="n">
         <v>0</v>
       </c>
-      <c r="R1682" t="inlineStr"/>
+      <c r="R1682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
@@ -94713,7 +94717,9 @@
       <c r="Q1683" t="n">
         <v>0</v>
       </c>
-      <c r="R1683" t="inlineStr"/>
+      <c r="R1683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
@@ -94767,7 +94773,9 @@
       <c r="Q1684" t="n">
         <v>0</v>
       </c>
-      <c r="R1684" t="inlineStr"/>
+      <c r="R1684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1685">
       <c r="A1685" s="2" t="n">
@@ -94821,7 +94829,117 @@
       <c r="Q1685" t="n">
         <v>0</v>
       </c>
-      <c r="R1685" t="inlineStr"/>
+      <c r="R1685" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>708.8499755859375</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>709.2000122070312</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>698</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>701.3499755859375</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>701.3499755859375</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>2754818</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1686" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>701.3499755859375</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>702.9000244140625</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>691.5499877929688</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>698.9000244140625</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>698.9000244140625</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>2985213</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1687" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1687" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1687"/>
+  <dimension ref="A1:R1695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94885,7 +94885,9 @@
       <c r="Q1686" t="n">
         <v>0</v>
       </c>
-      <c r="R1686" t="inlineStr"/>
+      <c r="R1686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
@@ -94939,7 +94941,441 @@
       <c r="Q1687" t="n">
         <v>0</v>
       </c>
-      <c r="R1687" t="inlineStr"/>
+      <c r="R1687" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>698.9000244140625</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>705.2000122070312</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>693.4000244140625</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>698.7999877929688</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>698.7999877929688</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>1527865</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1688" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1688" t="inlineStr"/>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>700.3499755859375</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>708.0999755859375</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>697.75</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>701.5</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>701.5</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>2202499</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1689" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>702</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>721</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>702</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>711.0999755859375</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>711.0999755859375</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>7891171</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1690" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>718.8499755859375</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>730</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>714.0499877929688</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>727.5</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>727.5</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>2943802</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1691" t="inlineStr"/>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>727.5</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>728.9500122070312</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>715.1500244140625</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>720.7000122070312</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>720.7000122070312</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>3212859</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>722</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>723.0999755859375</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>710.0999755859375</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>716.5499877929688</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>716.5499877929688</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>1096265</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>716.5499877929688</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>732</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>714.2999877929688</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>729.5499877929688</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>729.5499877929688</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>2797065</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>729.4500122070312</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>740.6500244140625</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>726.3499755859375</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>730.2000122070312</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>730.2000122070312</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>4567631</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1695" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1695"/>
+  <dimension ref="A1:R1697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94933,7 +94933,7 @@
         <v>38</v>
       </c>
       <c r="O1687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1687" t="n">
         <v>0</v>
@@ -94997,7 +94997,9 @@
       <c r="Q1688" t="n">
         <v>0</v>
       </c>
-      <c r="R1688" t="inlineStr"/>
+      <c r="R1688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
@@ -95051,7 +95053,9 @@
       <c r="Q1689" t="n">
         <v>0</v>
       </c>
-      <c r="R1689" t="inlineStr"/>
+      <c r="R1689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
@@ -95105,7 +95109,9 @@
       <c r="Q1690" t="n">
         <v>0</v>
       </c>
-      <c r="R1690" t="inlineStr"/>
+      <c r="R1690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
@@ -95159,7 +95165,9 @@
       <c r="Q1691" t="n">
         <v>0</v>
       </c>
-      <c r="R1691" t="inlineStr"/>
+      <c r="R1691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
@@ -95213,7 +95221,9 @@
       <c r="Q1692" t="n">
         <v>0</v>
       </c>
-      <c r="R1692" t="inlineStr"/>
+      <c r="R1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
@@ -95267,7 +95277,9 @@
       <c r="Q1693" t="n">
         <v>0</v>
       </c>
-      <c r="R1693" t="inlineStr"/>
+      <c r="R1693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
@@ -95321,7 +95333,9 @@
       <c r="Q1694" t="n">
         <v>0</v>
       </c>
-      <c r="R1694" t="inlineStr"/>
+      <c r="R1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -95375,7 +95389,117 @@
       <c r="Q1695" t="n">
         <v>0</v>
       </c>
-      <c r="R1695" t="inlineStr"/>
+      <c r="R1695" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>735</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>736.3499755859375</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>716</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>718</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>718</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>2488795</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1696" t="inlineStr"/>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>716</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>723.3499755859375</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>706.5999755859375</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>710.2000122070312</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>710.2000122070312</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>1986948</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1697" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1697"/>
+  <dimension ref="A1:R1704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95445,7 +95445,9 @@
       <c r="Q1696" t="n">
         <v>0</v>
       </c>
-      <c r="R1696" t="inlineStr"/>
+      <c r="R1696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1697">
       <c r="A1697" s="2" t="n">
@@ -95499,7 +95501,387 @@
       <c r="Q1697" t="n">
         <v>0</v>
       </c>
-      <c r="R1697" t="inlineStr"/>
+      <c r="R1697" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>696.5499877929688</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>711.9500122070312</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>696.5</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>702.25</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>702.25</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>2542774</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>702.25</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>713.5</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>701.5499877929688</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>708.7999877929688</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>708.7999877929688</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>2616851</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>711.6500244140625</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>719.2999877929688</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>702.9000244140625</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>705.8499755859375</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>705.8499755859375</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>3474485</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1700" t="inlineStr"/>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>700.5</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>712.5499877929688</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>699.7999877929688</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>710.0999755859375</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>710.0999755859375</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>3767320</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>709.8499755859375</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>725.4500122070312</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>703.75</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>717.2999877929688</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>717.2999877929688</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>1743202</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1702" t="inlineStr"/>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>721</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>726.2000122070312</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>713.2999877929688</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>723.6500244140625</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>723.6500244140625</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>2249443</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>721.5</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>725.5</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>717</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>723.8499755859375</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>723.8499755859375</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>1984351</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1704" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1704"/>
+  <dimension ref="A1:R1709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95557,7 +95557,9 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -95611,7 +95613,9 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -95665,7 +95669,9 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1701">
       <c r="A1701" s="2" t="n">
@@ -95719,7 +95725,9 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -95773,7 +95781,9 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1703">
       <c r="A1703" s="2" t="n">
@@ -95827,7 +95837,9 @@
       <c r="Q1703" t="n">
         <v>0</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -95881,7 +95893,279 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>728</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>741.5999755859375</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>726.2999877929688</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>740.5999755859375</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>740.5999755859375</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>3985624</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>742.7999877929688</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>746.4500122070312</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>711.2999877929688</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>714.25</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>714.25</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>6665822</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>723.4500122070312</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>732.4500122070312</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>714.8499755859375</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>726.7999877929688</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>726.7999877929688</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>5375005</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>730</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>731.5</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>715.9500122070312</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>726.0999755859375</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>726.0999755859375</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>4310887</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>726</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>744</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>720.0999755859375</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>742.4500122070312</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>742.4500122070312</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>3703152</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1709" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1709"/>
+  <dimension ref="A1:R1714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95949,7 +95949,9 @@
       <c r="Q1705" t="n">
         <v>0</v>
       </c>
-      <c r="R1705" t="inlineStr"/>
+      <c r="R1705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
@@ -96003,7 +96005,9 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="inlineStr"/>
+      <c r="R1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -96057,7 +96061,9 @@
       <c r="Q1707" t="n">
         <v>0</v>
       </c>
-      <c r="R1707" t="inlineStr"/>
+      <c r="R1707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
@@ -96111,7 +96117,9 @@
       <c r="Q1708" t="n">
         <v>0</v>
       </c>
-      <c r="R1708" t="inlineStr"/>
+      <c r="R1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -96165,7 +96173,279 @@
       <c r="Q1709" t="n">
         <v>0</v>
       </c>
-      <c r="R1709" t="inlineStr"/>
+      <c r="R1709" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>748.8499755859375</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>755.4500122070312</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>742.4500122070312</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>745.8499755859375</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>745.8499755859375</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>4508689</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1710" t="inlineStr"/>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>745.7999877929688</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>749.75</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>724.3499755859375</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>728.2000122070312</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>728.2000122070312</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>3346783</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>725</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>732</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>718.2000122070312</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>723.75</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>723.75</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>1668266</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>725</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>735</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>711.0499877929688</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>714.8499755859375</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>714.8499755859375</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>1806714</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>718</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>719.7000122070312</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>700</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>709.4500122070312</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>709.4500122070312</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>2852689</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1714"/>
+  <dimension ref="A1:R1718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96229,7 +96229,9 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96283,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96337,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96391,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96445,7 +96453,225 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>710.25</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>721.7999877929688</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>705.7000122070312</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>718.25</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>718.25</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>1448334</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>718</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>745.0999755859375</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>708.1500244140625</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>742.4000244140625</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>742.4000244140625</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>4585180</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>744.25</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>745</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>724.5499877929688</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>727.0499877929688</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>727.0499877929688</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>1645358</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>723.0999755859375</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>726.75</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>713.1500244140625</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>2028752</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1718"/>
+  <dimension ref="A1:R1720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96221,7 +96221,7 @@
         <v>43</v>
       </c>
       <c r="O1710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1710" t="n">
         <v>0</v>
@@ -96509,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96563,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -96617,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96671,7 +96677,117 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>720.2000122070312</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>727.5999755859375</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>706.0999755859375</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>710.8499755859375</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>710.8499755859375</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>2047736</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1720"/>
+  <dimension ref="A1:R1728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96733,7 +96733,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96787,7 +96789,441 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>710.7999877929688</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>726.5999755859375</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>685.4000244140625</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>717.25</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>717.25</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>5036300</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>717</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>718</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>704.3499755859375</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>708.7000122070312</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>708.7000122070312</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>2878220</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>708.7000122070312</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>713.7000122070312</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>703.2999877929688</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>711.7000122070312</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>711.7000122070312</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>1935062</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>709.5</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>719.8499755859375</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>707</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>708.5</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>708.5</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>1272302</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>704.0999755859375</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>711.5999755859375</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>695.7999877929688</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>705.3499755859375</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>705.3499755859375</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>1888427</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>707.5499877929688</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>719.8499755859375</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>696.0999755859375</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>700</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>700</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>2502158</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>695</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>698.8499755859375</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>683.1500244140625</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>685.0499877929688</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>685.0499877929688</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>2080391</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>681.5</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>696.7000122070312</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>681.5</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>694</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>694</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>1715862</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1728"/>
+  <dimension ref="A1:R1732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96845,7 +96845,9 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
@@ -96899,7 +96901,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96953,7 +96957,9 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1724">
       <c r="A1724" s="2" t="n">
@@ -97007,7 +97013,9 @@
       <c r="Q1724" t="n">
         <v>0</v>
       </c>
-      <c r="R1724" t="inlineStr"/>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -97061,7 +97069,9 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
@@ -97115,7 +97125,9 @@
       <c r="Q1726" t="n">
         <v>0</v>
       </c>
-      <c r="R1726" t="inlineStr"/>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
@@ -97169,7 +97181,9 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -97223,7 +97237,225 @@
       <c r="Q1728" t="n">
         <v>0</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>687</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>693.9500122070312</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>682.5</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>690.5</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>690.5</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>1666040</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>688.0499877929688</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>693</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>668.2999877929688</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>680.4000244140625</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>680.4000244140625</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>6438490</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>680.4000244140625</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>680.9500122070312</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>668.8499755859375</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>674.4000244140625</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>674.4000244140625</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>2194259</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>680</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>691.2999877929688</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>674.1500244140625</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>688.2000122070312</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>688.2000122070312</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>1788302</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1732"/>
+  <dimension ref="A1:R1737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97293,7 +97293,9 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -97347,7 +97349,9 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1731">
       <c r="A1731" s="2" t="n">
@@ -97401,7 +97405,9 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
@@ -97455,7 +97461,279 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>690</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>695.7999877929688</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>681.4000244140625</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>684.7999877929688</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>684.7999877929688</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>4622983</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>684</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>693.4000244140625</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>675</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>682.4000244140625</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>682.4000244140625</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>1767673</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>681.8499755859375</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>689.2999877929688</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>679.2999877929688</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>680.5499877929688</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>680.5499877929688</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>2422336</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>682</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>690.1500244140625</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>638.6500244140625</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>657.7000122070312</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>657.7000122070312</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>13625371</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>670</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>674.0999755859375</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>651.2999877929688</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>657.75</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>657.75</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>5933233</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1737"/>
+  <dimension ref="A1:R1742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97517,7 +97517,9 @@
       <c r="Q1733" t="n">
         <v>0</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -97571,7 +97573,9 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -97625,7 +97629,9 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -97679,7 +97685,9 @@
       <c r="Q1736" t="n">
         <v>0</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
@@ -97733,7 +97741,279 @@
       <c r="Q1737" t="n">
         <v>0</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>650</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>664</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>639.0999755859375</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>640.2000122070312</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>640.2000122070312</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>4977558</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>646.7999877929688</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>646.7999877929688</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>632.2999877929688</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>634</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>634</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>8256858</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>635</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>651</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>635</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>650.25</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>650.25</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>7392523</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>650.2000122070312</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>653.5</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>639.3499755859375</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>643.1500244140625</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>643.1500244140625</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>6163444</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>645</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>647.4500122070312</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>635.2000122070312</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>6453796</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1742"/>
+  <dimension ref="A1:R1752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97797,7 +97797,9 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -97851,7 +97853,9 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
@@ -97905,7 +97909,9 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -97959,7 +97965,9 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -98013,7 +98021,529 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>637.9000244140625</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>646.3499755859375</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>634.7000122070312</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>641.7999877929688</v>
+      </c>
+      <c r="F1743" t="inlineStr"/>
+      <c r="G1743" t="n">
+        <v>4027169</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>641.7999877929688</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>644.4500122070312</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>630.3499755859375</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>633.2999877929688</v>
+      </c>
+      <c r="F1744" t="inlineStr"/>
+      <c r="G1744" t="n">
+        <v>6158405</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>634.7999877929688</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>640.5999755859375</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>632.7999877929688</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>634.6500244140625</v>
+      </c>
+      <c r="F1745" t="inlineStr"/>
+      <c r="G1745" t="n">
+        <v>2396993</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>636</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>636.7999877929688</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>619.9000244140625</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>626.5499877929688</v>
+      </c>
+      <c r="F1746" t="inlineStr"/>
+      <c r="G1746" t="n">
+        <v>3807072</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>625</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>633.9000244140625</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>621.1500244140625</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>632.5499877929688</v>
+      </c>
+      <c r="F1747" t="inlineStr"/>
+      <c r="G1747" t="n">
+        <v>2573194</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1747" t="inlineStr"/>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>632.5499877929688</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>636.4000244140625</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>628.5499877929688</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>634.9500122070312</v>
+      </c>
+      <c r="F1748" t="inlineStr"/>
+      <c r="G1748" t="n">
+        <v>2175242</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>634.9500122070312</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>636.3499755859375</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>625.5999755859375</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>626.75</v>
+      </c>
+      <c r="F1749" t="inlineStr"/>
+      <c r="G1749" t="n">
+        <v>3179067</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>623.1500244140625</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>629.7999877929688</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>620.2999877929688</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>624.5499877929688</v>
+      </c>
+      <c r="F1750" t="inlineStr"/>
+      <c r="G1750" t="n">
+        <v>4331195</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>618.0499877929688</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>625</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>615.2999877929688</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="F1751" t="inlineStr"/>
+      <c r="G1751" t="n">
+        <v>3779968</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>619.7000122070312</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>626.5</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>618.2000122070312</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>623.7999877929688</v>
+      </c>
+      <c r="F1752" t="inlineStr"/>
+      <c r="G1752" t="n">
+        <v>3996193</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1752"/>
+  <dimension ref="A1:R1756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98075,7 +98075,9 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -98127,7 +98129,9 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
@@ -98179,7 +98183,9 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
@@ -98231,7 +98237,9 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
@@ -98283,7 +98291,9 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
@@ -98335,7 +98345,9 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -98387,7 +98399,9 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -98439,7 +98453,9 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -98491,7 +98507,9 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
@@ -98543,7 +98561,217 @@
       <c r="Q1752" t="n">
         <v>0</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>625.0499877929688</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>626.4500122070312</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>613.5999755859375</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>622.5499877929688</v>
+      </c>
+      <c r="F1753" t="inlineStr"/>
+      <c r="G1753" t="n">
+        <v>2924609</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>622.5499877929688</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>628.0499877929688</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>619</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>622.5</v>
+      </c>
+      <c r="F1754" t="inlineStr"/>
+      <c r="G1754" t="n">
+        <v>1445089</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>619.9000244140625</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>629.4500122070312</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>619.2000122070312</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>626.4000244140625</v>
+      </c>
+      <c r="F1755" t="inlineStr"/>
+      <c r="G1755" t="n">
+        <v>3523864</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>626.4000244140625</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>629.4000244140625</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>620.5999755859375</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>621.9000244140625</v>
+      </c>
+      <c r="F1756" t="inlineStr"/>
+      <c r="G1756" t="n">
+        <v>726071</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1756"/>
+  <dimension ref="A1:R1761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98615,7 +98615,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98667,7 +98669,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98719,7 +98723,9 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -98771,7 +98777,269 @@
       <c r="Q1756" t="n">
         <v>0</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>620.3499755859375</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>623.9000244140625</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>614.3499755859375</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>617.4000244140625</v>
+      </c>
+      <c r="F1757" t="inlineStr"/>
+      <c r="G1757" t="n">
+        <v>1564417</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>617.2000122070312</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>619.1500244140625</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>611.0499877929688</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>617.0499877929688</v>
+      </c>
+      <c r="F1758" t="inlineStr"/>
+      <c r="G1758" t="n">
+        <v>2645522</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>615.0999755859375</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>619.5</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>612.6500244140625</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>617.2000122070312</v>
+      </c>
+      <c r="F1759" t="inlineStr"/>
+      <c r="G1759" t="n">
+        <v>1386549</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>617</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>621.0999755859375</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>614</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>620.1500244140625</v>
+      </c>
+      <c r="F1760" t="inlineStr"/>
+      <c r="G1760" t="n">
+        <v>2449967</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>619</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>624.0499877929688</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>615.6500244140625</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>623</v>
+      </c>
+      <c r="F1761" t="inlineStr"/>
+      <c r="G1761" t="n">
+        <v>2956664</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1761"/>
+  <dimension ref="A1:R1766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98831,7 +98831,9 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -98883,7 +98885,9 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
@@ -98935,7 +98939,9 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -98987,7 +98993,9 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -99039,7 +99047,269 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>627</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>627</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>603.3499755859375</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>605.9500122070312</v>
+      </c>
+      <c r="F1762" t="inlineStr"/>
+      <c r="G1762" t="n">
+        <v>5743310</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>606</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>620.7000122070312</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>605.5</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>619.8499755859375</v>
+      </c>
+      <c r="F1763" t="inlineStr"/>
+      <c r="G1763" t="n">
+        <v>2813892</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>620.0499877929688</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>623.25</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>615.0999755859375</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>618</v>
+      </c>
+      <c r="F1764" t="inlineStr"/>
+      <c r="G1764" t="n">
+        <v>1861556</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>616.0999755859375</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>621.0999755859375</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>609.9000244140625</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>612.2000122070312</v>
+      </c>
+      <c r="F1765" t="inlineStr"/>
+      <c r="G1765" t="n">
+        <v>2141675</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>614.9000244140625</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>603</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>608.6500244140625</v>
+      </c>
+      <c r="F1766" t="inlineStr"/>
+      <c r="G1766" t="n">
+        <v>1966880</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1766"/>
+  <dimension ref="A1:R1771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99101,7 +99101,9 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -99153,7 +99155,9 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -99205,7 +99209,9 @@
       <c r="Q1764" t="n">
         <v>0</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99257,7 +99263,9 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
@@ -99309,7 +99317,269 @@
       <c r="Q1766" t="n">
         <v>0</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>607</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>608.4500122070312</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>597.2999877929688</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>599.75</v>
+      </c>
+      <c r="F1767" t="inlineStr"/>
+      <c r="G1767" t="n">
+        <v>2105862</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>605</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>608.0499877929688</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>594.8499755859375</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>600.4500122070312</v>
+      </c>
+      <c r="F1768" t="inlineStr"/>
+      <c r="G1768" t="n">
+        <v>3122102</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>604.5</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>604.5</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>584.2999877929688</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>594.2000122070312</v>
+      </c>
+      <c r="F1769" t="inlineStr"/>
+      <c r="G1769" t="n">
+        <v>5633587</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>630.0999755859375</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>663.5999755859375</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>628.9500122070312</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>641.4000244140625</v>
+      </c>
+      <c r="F1770" t="inlineStr"/>
+      <c r="G1770" t="n">
+        <v>24198675</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>640</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>649.9500122070312</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>633.4000244140625</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>642.2000122070312</v>
+      </c>
+      <c r="F1771" t="inlineStr"/>
+      <c r="G1771" t="n">
+        <v>3671533</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1771"/>
+  <dimension ref="A1:R1776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99371,7 +99371,9 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
@@ -99423,7 +99425,9 @@
       <c r="Q1768" t="n">
         <v>0</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -99475,7 +99479,9 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -99527,7 +99533,9 @@
       <c r="Q1770" t="n">
         <v>0</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -99579,7 +99587,269 @@
       <c r="Q1771" t="n">
         <v>0</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>642</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>644.0499877929688</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>630.5499877929688</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>634.0499877929688</v>
+      </c>
+      <c r="F1772" t="inlineStr"/>
+      <c r="G1772" t="n">
+        <v>1956252</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>636</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>637.0499877929688</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>622.9000244140625</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>624</v>
+      </c>
+      <c r="F1773" t="inlineStr"/>
+      <c r="G1773" t="n">
+        <v>1820019</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>629</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>629</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>612.9000244140625</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>618.2000122070312</v>
+      </c>
+      <c r="F1774" t="inlineStr"/>
+      <c r="G1774" t="n">
+        <v>2296057</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>618</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>625.2000122070312</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>612.5999755859375</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>621</v>
+      </c>
+      <c r="F1775" t="inlineStr"/>
+      <c r="G1775" t="n">
+        <v>1673008</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>620.5499877929688</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>625</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>613.2999877929688</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>621.0999755859375</v>
+      </c>
+      <c r="F1776" t="inlineStr"/>
+      <c r="G1776" t="n">
+        <v>1793349</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1776"/>
+  <dimension ref="A1:R1779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99471,7 +99471,7 @@
         <v>3</v>
       </c>
       <c r="O1769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1769" t="n">
         <v>0</v>
@@ -99641,7 +99641,9 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
@@ -99693,7 +99695,9 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -99745,7 +99749,9 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
@@ -99797,7 +99803,9 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -99849,7 +99857,165 @@
       <c r="Q1776" t="n">
         <v>0</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>618</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>619.75</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>606.4000244140625</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>610.2000122070312</v>
+      </c>
+      <c r="F1777" t="inlineStr"/>
+      <c r="G1777" t="n">
+        <v>1730503</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>610.9500122070312</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>614</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>600.0999755859375</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>611.5499877929688</v>
+      </c>
+      <c r="F1778" t="inlineStr"/>
+      <c r="G1778" t="n">
+        <v>2662789</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>612</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>629.7000122070312</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>605.1500244140625</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>628.3499755859375</v>
+      </c>
+      <c r="F1779" t="inlineStr"/>
+      <c r="G1779" t="n">
+        <v>2005766</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1779"/>
+  <dimension ref="A1:R1787"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99525,7 +99525,7 @@
         <v>3</v>
       </c>
       <c r="O1770" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1770" t="n">
         <v>0</v>
@@ -99911,7 +99911,9 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -99963,7 +99965,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -100015,7 +100019,425 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>624.7000122070312</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>636.0999755859375</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>624</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>634.1500244140625</v>
+      </c>
+      <c r="F1780" t="inlineStr"/>
+      <c r="G1780" t="n">
+        <v>2899445</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>638</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>641</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>630.1500244140625</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>638.0499877929688</v>
+      </c>
+      <c r="F1781" t="inlineStr"/>
+      <c r="G1781" t="n">
+        <v>1012392</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>639.0499877929688</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>667.5499877929688</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>595.25</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>625.5</v>
+      </c>
+      <c r="F1782" t="inlineStr"/>
+      <c r="G1782" t="n">
+        <v>10039413</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>615.5</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>630.3499755859375</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>610</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>621.4000244140625</v>
+      </c>
+      <c r="F1783" t="inlineStr"/>
+      <c r="G1783" t="n">
+        <v>3293387</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>627.9500122070312</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>628</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>615.4000244140625</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>625.9000244140625</v>
+      </c>
+      <c r="F1784" t="inlineStr"/>
+      <c r="G1784" t="n">
+        <v>3244955</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>626</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>639</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>624.7000122070312</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>627.8499755859375</v>
+      </c>
+      <c r="F1785" t="inlineStr"/>
+      <c r="G1785" t="n">
+        <v>4467504</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>626.4500122070312</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>638.4000244140625</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>623.1500244140625</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>631.9500122070312</v>
+      </c>
+      <c r="F1786" t="inlineStr"/>
+      <c r="G1786" t="n">
+        <v>4837012</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>631.9500122070312</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>637.5</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>624.5499877929688</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>635.7000122070312</v>
+      </c>
+      <c r="F1787" t="inlineStr"/>
+      <c r="G1787" t="n">
+        <v>2537909</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1787"/>
+  <dimension ref="A1:R1792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100073,7 +100073,9 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -100125,7 +100127,9 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
@@ -100169,7 +100173,7 @@
         <v>5</v>
       </c>
       <c r="O1782" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P1782" t="n">
         <v>0</v>
@@ -100177,7 +100181,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100229,7 +100235,9 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -100281,7 +100289,9 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -100333,7 +100343,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100385,7 +100397,9 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
@@ -100437,7 +100451,269 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>636</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>640.7999877929688</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>626.75</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>635.7000122070312</v>
+      </c>
+      <c r="F1788" t="inlineStr"/>
+      <c r="G1788" t="n">
+        <v>3394573</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>632.25</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>634.8499755859375</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>612.9500122070312</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>618.5999755859375</v>
+      </c>
+      <c r="F1789" t="inlineStr"/>
+      <c r="G1789" t="n">
+        <v>2327875</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>618.0999755859375</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>636.9000244140625</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>608.1500244140625</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>629.1500244140625</v>
+      </c>
+      <c r="F1790" t="inlineStr"/>
+      <c r="G1790" t="n">
+        <v>3378279</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>629.1500244140625</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>640</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>627.6500244140625</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>629.5999755859375</v>
+      </c>
+      <c r="F1791" t="inlineStr"/>
+      <c r="G1791" t="n">
+        <v>2808139</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>630</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>633.9000244140625</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>622.5</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>626.2000122070312</v>
+      </c>
+      <c r="F1792" t="inlineStr"/>
+      <c r="G1792" t="n">
+        <v>1693068</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1792"/>
+  <dimension ref="A1:R1796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100505,7 +100505,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
@@ -100557,7 +100559,9 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100609,7 +100613,9 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
@@ -100661,7 +100667,9 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
@@ -100713,7 +100721,217 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>626.2000122070312</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>627</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>613.9500122070312</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>623.25</v>
+      </c>
+      <c r="F1793" t="inlineStr"/>
+      <c r="G1793" t="n">
+        <v>1860572</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>624</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>626</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>611.3499755859375</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>618.9500122070312</v>
+      </c>
+      <c r="F1794" t="inlineStr"/>
+      <c r="G1794" t="n">
+        <v>1887686</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>617</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>624</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>613.7999877929688</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>622.8499755859375</v>
+      </c>
+      <c r="F1795" t="inlineStr"/>
+      <c r="G1795" t="n">
+        <v>2007325</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>617.7999877929688</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>623.9000244140625</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>613.4500122070312</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>622.8499755859375</v>
+      </c>
+      <c r="F1796" t="inlineStr"/>
+      <c r="G1796" t="n">
+        <v>1627630</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1796"/>
+  <dimension ref="A1:R1806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100775,7 +100775,9 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
@@ -100827,7 +100829,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100879,27 +100883,29 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
-        <v>45709</v>
+        <v>45708</v>
       </c>
       <c r="B1796" t="n">
-        <v>617.7999877929688</v>
+        <v>623</v>
       </c>
       <c r="C1796" t="n">
-        <v>623.9000244140625</v>
+        <v>630</v>
       </c>
       <c r="D1796" t="n">
-        <v>613.4500122070312</v>
+        <v>616.2999877929688</v>
       </c>
       <c r="E1796" t="n">
-        <v>622.8499755859375</v>
+        <v>620</v>
       </c>
       <c r="F1796" t="inlineStr"/>
       <c r="G1796" t="n">
-        <v>1627630</v>
+        <v>2881981</v>
       </c>
       <c r="H1796" t="n">
         <v>2025</v>
@@ -100908,7 +100914,7 @@
         <v>2</v>
       </c>
       <c r="J1796" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1796" t="n">
         <v>0</v>
@@ -100932,6 +100938,528 @@
         <v>0</v>
       </c>
       <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>617.7999877929688</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>623.9000244140625</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>613.4500122070312</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>622.8499755859375</v>
+      </c>
+      <c r="F1797" t="inlineStr"/>
+      <c r="G1797" t="n">
+        <v>1627630</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>616</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>621.5</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>614.5</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>617</v>
+      </c>
+      <c r="F1798" t="inlineStr"/>
+      <c r="G1798" t="n">
+        <v>983443</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>617.0499877929688</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>623.2999877929688</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>613.0999755859375</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>622.1500244140625</v>
+      </c>
+      <c r="F1799" t="inlineStr"/>
+      <c r="G1799" t="n">
+        <v>1606709</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>625</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>627.8499755859375</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>615</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>618.4000244140625</v>
+      </c>
+      <c r="F1800" t="inlineStr"/>
+      <c r="G1800" t="n">
+        <v>1831493</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>614</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>616.9500122070312</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>600.3499755859375</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>608.5</v>
+      </c>
+      <c r="F1801" t="inlineStr"/>
+      <c r="G1801" t="n">
+        <v>5013148</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>608.5</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>620.1500244140625</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>607</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>618</v>
+      </c>
+      <c r="F1802" t="inlineStr"/>
+      <c r="G1802" t="n">
+        <v>3624490</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>613.0999755859375</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>620.7999877929688</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>609.2999877929688</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>616.5</v>
+      </c>
+      <c r="F1803" t="inlineStr"/>
+      <c r="G1803" t="n">
+        <v>3262295</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>613</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>625</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>612</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>621.2000122070312</v>
+      </c>
+      <c r="F1804" t="inlineStr"/>
+      <c r="G1804" t="n">
+        <v>2661830</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>621.2000122070312</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>628</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>612.5999755859375</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>618.25</v>
+      </c>
+      <c r="F1805" t="inlineStr"/>
+      <c r="G1805" t="n">
+        <v>2491123</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>618.2999877929688</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>633</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>618.1500244140625</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>625.2000122070312</v>
+      </c>
+      <c r="F1806" t="inlineStr"/>
+      <c r="G1806" t="n">
+        <v>3169197</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1806"/>
+  <dimension ref="A1:R1815"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100937,7 +100937,9 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -101043,7 +101045,9 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
@@ -101095,7 +101099,9 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
@@ -101147,7 +101153,9 @@
       <c r="Q1800" t="n">
         <v>0</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
@@ -101191,7 +101199,7 @@
         <v>9</v>
       </c>
       <c r="O1801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1801" t="n">
         <v>0</v>
@@ -101199,7 +101207,9 @@
       <c r="Q1801" t="n">
         <v>0</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
@@ -101251,7 +101261,9 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
@@ -101303,7 +101315,9 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
@@ -101355,7 +101369,9 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -101407,7 +101423,9 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -101459,7 +101477,477 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>625.0499877929688</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>633</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>623</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>625.9000244140625</v>
+      </c>
+      <c r="F1807" t="inlineStr"/>
+      <c r="G1807" t="n">
+        <v>2316148</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>623</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>637.5499877929688</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>614.6500244140625</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>636.9500122070312</v>
+      </c>
+      <c r="F1808" t="inlineStr"/>
+      <c r="G1808" t="n">
+        <v>2677293</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>636.9500122070312</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>639.75</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>627.0999755859375</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>632</v>
+      </c>
+      <c r="F1809" t="inlineStr"/>
+      <c r="G1809" t="n">
+        <v>2704337</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>631</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>632.2999877929688</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>619.4500122070312</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>622.4000244140625</v>
+      </c>
+      <c r="F1810" t="inlineStr"/>
+      <c r="G1810" t="n">
+        <v>2211232</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>622.4000244140625</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>631.3499755859375</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>622.4000244140625</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>629.7999877929688</v>
+      </c>
+      <c r="F1811" t="inlineStr"/>
+      <c r="G1811" t="n">
+        <v>1075106</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>629.7999877929688</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>629.7999877929688</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>629.7999877929688</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>629.7999877929688</v>
+      </c>
+      <c r="F1812" t="inlineStr"/>
+      <c r="G1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>642</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>665.9000244140625</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>640.6500244140625</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>664.5499877929688</v>
+      </c>
+      <c r="F1813" t="inlineStr"/>
+      <c r="G1813" t="n">
+        <v>2470532</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>665</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>678.3499755859375</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>659.0999755859375</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>674.3499755859375</v>
+      </c>
+      <c r="F1814" t="inlineStr"/>
+      <c r="G1814" t="n">
+        <v>4425855</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>677.7999877929688</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>681.0999755859375</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>669.0499877929688</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>679.5999755859375</v>
+      </c>
+      <c r="F1815" t="inlineStr"/>
+      <c r="G1815" t="n">
+        <v>3725184</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1815"/>
+  <dimension ref="A1:R1824"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101531,7 +101531,9 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1808">
       <c r="A1808" s="2" t="n">
@@ -101583,7 +101585,9 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101635,7 +101639,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -101687,7 +101693,9 @@
       <c r="Q1810" t="n">
         <v>0</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
@@ -101739,7 +101747,9 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
@@ -101791,7 +101801,9 @@
       <c r="Q1812" t="n">
         <v>1</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
@@ -101843,7 +101855,9 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -101895,7 +101909,9 @@
       <c r="Q1814" t="n">
         <v>0</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
@@ -101947,7 +101963,477 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>679.5999755859375</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>687.4500122070312</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>675.5999755859375</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>679.9000244140625</v>
+      </c>
+      <c r="F1816" t="inlineStr"/>
+      <c r="G1816" t="n">
+        <v>1401023</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>683</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>686</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>671.3499755859375</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>673.0999755859375</v>
+      </c>
+      <c r="F1817" t="inlineStr"/>
+      <c r="G1817" t="n">
+        <v>2019661</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>673.0999755859375</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>680.4000244140625</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>664.8499755859375</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>668.4000244140625</v>
+      </c>
+      <c r="F1818" t="inlineStr"/>
+      <c r="G1818" t="n">
+        <v>2231203</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>668.4000244140625</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>684.5999755859375</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>667.0499877929688</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>681.9000244140625</v>
+      </c>
+      <c r="F1819" t="inlineStr"/>
+      <c r="G1819" t="n">
+        <v>5951034</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>683.9000244140625</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>688.25</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>677.9500122070312</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>685.7000122070312</v>
+      </c>
+      <c r="F1820" t="inlineStr"/>
+      <c r="G1820" t="n">
+        <v>3116601</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>683</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>698.0499877929688</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>680</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>692.9000244140625</v>
+      </c>
+      <c r="F1821" t="inlineStr"/>
+      <c r="G1821" t="n">
+        <v>4620146</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>693.2999877929688</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>701.75</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>690.2000122070312</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>696.1500244140625</v>
+      </c>
+      <c r="F1822" t="inlineStr"/>
+      <c r="G1822" t="n">
+        <v>3047499</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>697.7999877929688</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>675</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>692.9000244140625</v>
+      </c>
+      <c r="F1823" t="inlineStr"/>
+      <c r="G1823" t="n">
+        <v>1353987</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>687</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>695</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>684.1500244140625</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>689.0499877929688</v>
+      </c>
+      <c r="F1824" t="inlineStr"/>
+      <c r="G1824" t="n">
+        <v>3866985</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1824"/>
+  <dimension ref="A1:R1828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102017,7 +102017,9 @@
       <c r="Q1816" t="n">
         <v>0</v>
       </c>
-      <c r="R1816" t="inlineStr"/>
+      <c r="R1816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1817">
       <c r="A1817" s="2" t="n">
@@ -102069,7 +102071,9 @@
       <c r="Q1817" t="n">
         <v>0</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
@@ -102121,7 +102125,9 @@
       <c r="Q1818" t="n">
         <v>0</v>
       </c>
-      <c r="R1818" t="inlineStr"/>
+      <c r="R1818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
@@ -102173,7 +102179,9 @@
       <c r="Q1819" t="n">
         <v>0</v>
       </c>
-      <c r="R1819" t="inlineStr"/>
+      <c r="R1819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
@@ -102225,7 +102233,9 @@
       <c r="Q1820" t="n">
         <v>0</v>
       </c>
-      <c r="R1820" t="inlineStr"/>
+      <c r="R1820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
@@ -102277,7 +102287,9 @@
       <c r="Q1821" t="n">
         <v>0</v>
       </c>
-      <c r="R1821" t="inlineStr"/>
+      <c r="R1821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1822">
       <c r="A1822" s="2" t="n">
@@ -102329,7 +102341,9 @@
       <c r="Q1822" t="n">
         <v>0</v>
       </c>
-      <c r="R1822" t="inlineStr"/>
+      <c r="R1822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1823">
       <c r="A1823" s="2" t="n">
@@ -102381,7 +102395,9 @@
       <c r="Q1823" t="n">
         <v>0</v>
       </c>
-      <c r="R1823" t="inlineStr"/>
+      <c r="R1823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
@@ -102433,7 +102449,217 @@
       <c r="Q1824" t="n">
         <v>0</v>
       </c>
-      <c r="R1824" t="inlineStr"/>
+      <c r="R1824" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>663.75</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>680</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>651.7000122070312</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>665.9500122070312</v>
+      </c>
+      <c r="F1825" t="inlineStr"/>
+      <c r="G1825" t="n">
+        <v>3861746</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>674.5</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>689.75</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>668.2999877929688</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>685.75</v>
+      </c>
+      <c r="F1826" t="inlineStr"/>
+      <c r="G1826" t="n">
+        <v>3279965</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>685.5</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>691.5999755859375</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>679.1500244140625</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>684.7999877929688</v>
+      </c>
+      <c r="F1827" t="inlineStr"/>
+      <c r="G1827" t="n">
+        <v>3054715</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>683.4000244140625</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>690.4000244140625</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>682.1500244140625</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>685.5499877929688</v>
+      </c>
+      <c r="F1828" t="inlineStr"/>
+      <c r="G1828" t="n">
+        <v>3264116</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1828"/>
+  <dimension ref="A1:R1831"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102503,7 +102503,9 @@
       <c r="Q1825" t="n">
         <v>0</v>
       </c>
-      <c r="R1825" t="inlineStr"/>
+      <c r="R1825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1826">
       <c r="A1826" s="2" t="n">
@@ -102555,7 +102557,9 @@
       <c r="Q1826" t="n">
         <v>0</v>
       </c>
-      <c r="R1826" t="inlineStr"/>
+      <c r="R1826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1827">
       <c r="A1827" s="2" t="n">
@@ -102607,7 +102611,9 @@
       <c r="Q1827" t="n">
         <v>0</v>
       </c>
-      <c r="R1827" t="inlineStr"/>
+      <c r="R1827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1828">
       <c r="A1828" s="2" t="n">
@@ -102659,7 +102665,165 @@
       <c r="Q1828" t="n">
         <v>0</v>
       </c>
-      <c r="R1828" t="inlineStr"/>
+      <c r="R1828" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>691.1500244140625</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>707.5</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>690.2999877929688</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>704.7000122070312</v>
+      </c>
+      <c r="F1829" t="inlineStr"/>
+      <c r="G1829" t="n">
+        <v>2306442</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>700.2000122070312</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>721.3499755859375</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>700.2000122070312</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>716.0499877929688</v>
+      </c>
+      <c r="F1830" t="inlineStr"/>
+      <c r="G1830" t="n">
+        <v>3452538</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1830" t="inlineStr"/>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>716.0499877929688</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>723.75</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>709.5499877929688</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>720.0499877929688</v>
+      </c>
+      <c r="F1831" t="inlineStr"/>
+      <c r="G1831" t="n">
+        <v>3105731</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1831" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1831" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1831"/>
+  <dimension ref="A1:R1840"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10886,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="R186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -12118,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="R208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -14582,7 +14582,7 @@
         <v>2</v>
       </c>
       <c r="R252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
@@ -15702,7 +15702,7 @@
         <v>2</v>
       </c>
       <c r="R272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273">
@@ -16430,7 +16430,7 @@
         <v>0</v>
       </c>
       <c r="R285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -17718,7 +17718,7 @@
         <v>0</v>
       </c>
       <c r="R308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -18614,7 +18614,7 @@
         <v>0</v>
       </c>
       <c r="R324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -19790,7 +19790,7 @@
         <v>0</v>
       </c>
       <c r="R345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -21694,7 +21694,7 @@
         <v>1</v>
       </c>
       <c r="R379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -22982,7 +22982,7 @@
         <v>1</v>
       </c>
       <c r="R402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -24550,7 +24550,7 @@
         <v>1</v>
       </c>
       <c r="R430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -25558,7 +25558,7 @@
         <v>2</v>
       </c>
       <c r="R448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449">
@@ -26286,7 +26286,7 @@
         <v>1</v>
       </c>
       <c r="R461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -27910,7 +27910,7 @@
         <v>2</v>
       </c>
       <c r="R490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491">
@@ -28302,7 +28302,7 @@
         <v>1</v>
       </c>
       <c r="R497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -28862,7 +28862,7 @@
         <v>2</v>
       </c>
       <c r="R507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508">
@@ -30206,7 +30206,7 @@
         <v>0</v>
       </c>
       <c r="R531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -31550,7 +31550,7 @@
         <v>0</v>
       </c>
       <c r="R555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -35806,7 +35806,7 @@
         <v>0</v>
       </c>
       <c r="R631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
@@ -38158,7 +38158,7 @@
         <v>0</v>
       </c>
       <c r="R673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
@@ -41070,7 +41070,7 @@
         <v>2</v>
       </c>
       <c r="R725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726">
@@ -41518,7 +41518,7 @@
         <v>0</v>
       </c>
       <c r="R733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734">
@@ -42918,7 +42918,7 @@
         <v>2</v>
       </c>
       <c r="R758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759">
@@ -43198,7 +43198,7 @@
         <v>0</v>
       </c>
       <c r="R763" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764">
@@ -44654,7 +44654,7 @@
         <v>2</v>
       </c>
       <c r="R789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790">
@@ -46894,7 +46894,7 @@
         <v>2</v>
       </c>
       <c r="R829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830">
@@ -47510,7 +47510,7 @@
         <v>0</v>
       </c>
       <c r="R840" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841">
@@ -50926,7 +50926,7 @@
         <v>2</v>
       </c>
       <c r="R901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902">
@@ -58822,7 +58822,7 @@
         <v>2</v>
       </c>
       <c r="R1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1043">
@@ -61678,7 +61678,7 @@
         <v>2</v>
       </c>
       <c r="R1093" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094">
@@ -62630,7 +62630,7 @@
         <v>0</v>
       </c>
       <c r="R1110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111">
@@ -63974,7 +63974,7 @@
         <v>0</v>
       </c>
       <c r="R1134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135">
@@ -67838,7 +67838,7 @@
         <v>2</v>
       </c>
       <c r="R1203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1204">
@@ -68454,7 +68454,7 @@
         <v>1</v>
       </c>
       <c r="R1214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215">
@@ -70302,7 +70302,7 @@
         <v>1</v>
       </c>
       <c r="R1247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248">
@@ -71982,7 +71982,7 @@
         <v>1</v>
       </c>
       <c r="R1277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1278">
@@ -82678,7 +82678,7 @@
         <v>0</v>
       </c>
       <c r="R1468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1469">
@@ -83462,7 +83462,7 @@
         <v>0</v>
       </c>
       <c r="R1482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1483">
@@ -85590,7 +85590,7 @@
         <v>1</v>
       </c>
       <c r="R1520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1521">
@@ -87830,7 +87830,7 @@
         <v>0</v>
       </c>
       <c r="R1560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1561">
@@ -90574,7 +90574,7 @@
         <v>0</v>
       </c>
       <c r="R1609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1610">
@@ -93766,7 +93766,7 @@
         <v>2</v>
       </c>
       <c r="R1666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1667">
@@ -96846,7 +96846,7 @@
         <v>0</v>
       </c>
       <c r="R1721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1722">
@@ -100128,7 +100128,7 @@
         <v>0</v>
       </c>
       <c r="R1781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1782">
@@ -101802,7 +101802,7 @@
         <v>1</v>
       </c>
       <c r="R1812" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1813">
@@ -102495,7 +102495,7 @@
         <v>15</v>
       </c>
       <c r="O1825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1825" t="n">
         <v>0</v>
@@ -102719,7 +102719,9 @@
       <c r="Q1829" t="n">
         <v>0</v>
       </c>
-      <c r="R1829" t="inlineStr"/>
+      <c r="R1829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1830">
       <c r="A1830" s="2" t="n">
@@ -102771,7 +102773,9 @@
       <c r="Q1830" t="n">
         <v>0</v>
       </c>
-      <c r="R1830" t="inlineStr"/>
+      <c r="R1830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1831">
       <c r="A1831" s="2" t="n">
@@ -102823,7 +102827,477 @@
       <c r="Q1831" t="n">
         <v>0</v>
       </c>
-      <c r="R1831" t="inlineStr"/>
+      <c r="R1831" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>725</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>725</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>703.5999755859375</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>712.2000122070312</v>
+      </c>
+      <c r="F1832" t="inlineStr"/>
+      <c r="G1832" t="n">
+        <v>6168127</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1832" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1832" t="inlineStr"/>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>718</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>721.8499755859375</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>708.5499877929688</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>712.5499877929688</v>
+      </c>
+      <c r="F1833" t="inlineStr"/>
+      <c r="G1833" t="n">
+        <v>2669384</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1833" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1833" t="inlineStr"/>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>715.4000244140625</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>715.9000244140625</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>705.0999755859375</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>709.0999755859375</v>
+      </c>
+      <c r="F1834" t="inlineStr"/>
+      <c r="G1834" t="n">
+        <v>2091384</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1834" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1834" t="inlineStr"/>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>713</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>716</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>705</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>708.4000244140625</v>
+      </c>
+      <c r="F1835" t="inlineStr"/>
+      <c r="G1835" t="n">
+        <v>3814638</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1835" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1835" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1835" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1835" t="inlineStr"/>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>711.4500122070312</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>733.5</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>692.6500244140625</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>704.5499877929688</v>
+      </c>
+      <c r="F1836" t="inlineStr"/>
+      <c r="G1836" t="n">
+        <v>3714671</v>
+      </c>
+      <c r="H1836" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1836" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1836" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1836" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1836" t="inlineStr"/>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>702.7000122070312</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>714.5</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>698.0999755859375</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>710.8499755859375</v>
+      </c>
+      <c r="F1837" t="inlineStr"/>
+      <c r="G1837" t="n">
+        <v>1944250</v>
+      </c>
+      <c r="H1837" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1837" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1837" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1837" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1837" t="inlineStr"/>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>715.9000244140625</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>719</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>707</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>715.0499877929688</v>
+      </c>
+      <c r="F1838" t="inlineStr"/>
+      <c r="G1838" t="n">
+        <v>2545118</v>
+      </c>
+      <c r="H1838" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1838" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1838" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1838" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1838" t="inlineStr"/>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>712.0999755859375</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>749.7999877929688</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>712.0999755859375</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>743.7000122070312</v>
+      </c>
+      <c r="F1839" t="inlineStr"/>
+      <c r="G1839" t="n">
+        <v>8732964</v>
+      </c>
+      <c r="H1839" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1839" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1839" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1839" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1839" t="inlineStr"/>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>743.7000122070312</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>749.3499755859375</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>726.4500122070312</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>727.75</v>
+      </c>
+      <c r="F1840" t="inlineStr"/>
+      <c r="G1840" t="n">
+        <v>3286699</v>
+      </c>
+      <c r="H1840" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1840" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1840" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1840" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1840" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HDFCLIFE.NS.xlsx
+++ b/stock_historical_data/1d/HDFCLIFE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1840"/>
+  <dimension ref="A1:R1850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10886,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="R186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -12118,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="R208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -14582,7 +14582,7 @@
         <v>2</v>
       </c>
       <c r="R252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -15702,7 +15702,7 @@
         <v>2</v>
       </c>
       <c r="R272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -16430,7 +16430,7 @@
         <v>0</v>
       </c>
       <c r="R285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -17718,7 +17718,7 @@
         <v>0</v>
       </c>
       <c r="R308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -18614,7 +18614,7 @@
         <v>0</v>
       </c>
       <c r="R324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -19790,7 +19790,7 @@
         <v>0</v>
       </c>
       <c r="R345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -21694,7 +21694,7 @@
         <v>1</v>
       </c>
       <c r="R379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -22982,7 +22982,7 @@
         <v>1</v>
       </c>
       <c r="R402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -24550,7 +24550,7 @@
         <v>1</v>
       </c>
       <c r="R430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -25558,7 +25558,7 @@
         <v>2</v>
       </c>
       <c r="R448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -26286,7 +26286,7 @@
         <v>1</v>
       </c>
       <c r="R461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -27910,7 +27910,7 @@
         <v>2</v>
       </c>
       <c r="R490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -28302,7 +28302,7 @@
         <v>1</v>
       </c>
       <c r="R497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -28862,7 +28862,7 @@
         <v>2</v>
       </c>
       <c r="R507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -30206,7 +30206,7 @@
         <v>0</v>
       </c>
       <c r="R531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532">
@@ -31550,7 +31550,7 @@
         <v>0</v>
       </c>
       <c r="R555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556">
@@ -35806,7 +35806,7 @@
         <v>0</v>
       </c>
       <c r="R631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632">
@@ -38158,7 +38158,7 @@
         <v>0</v>
       </c>
       <c r="R673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674">
@@ -41070,7 +41070,7 @@
         <v>2</v>
       </c>
       <c r="R725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726">
@@ -41518,7 +41518,7 @@
         <v>0</v>
       </c>
       <c r="R733" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734">
@@ -42918,7 +42918,7 @@
         <v>2</v>
       </c>
       <c r="R758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759">
@@ -43198,7 +43198,7 @@
         <v>0</v>
       </c>
       <c r="R763" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764">
@@ -44654,7 +44654,7 @@
         <v>2</v>
       </c>
       <c r="R789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790">
@@ -46894,7 +46894,7 @@
         <v>2</v>
       </c>
       <c r="R829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830">
@@ -47510,7 +47510,7 @@
         <v>0</v>
       </c>
       <c r="R840" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841">
@@ -50926,7 +50926,7 @@
         <v>2</v>
       </c>
       <c r="R901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902">
@@ -58822,7 +58822,7 @@
         <v>2</v>
       </c>
       <c r="R1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043">
@@ -61678,7 +61678,7 @@
         <v>2</v>
       </c>
       <c r="R1093" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094">
@@ -62630,7 +62630,7 @@
         <v>0</v>
       </c>
       <c r="R1110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1111">
@@ -63974,7 +63974,7 @@
         <v>0</v>
       </c>
       <c r="R1134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135">
@@ -67838,7 +67838,7 @@
         <v>2</v>
       </c>
       <c r="R1203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204">
@@ -68454,7 +68454,7 @@
         <v>1</v>
       </c>
       <c r="R1214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215">
@@ -70302,7 +70302,7 @@
         <v>1</v>
       </c>
       <c r="R1247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248">
@@ -71982,7 +71982,7 @@
         <v>1</v>
       </c>
       <c r="R1277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1278">
@@ -82678,7 +82678,7 @@
         <v>0</v>
       </c>
       <c r="R1468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1469">
@@ -83462,7 +83462,7 @@
         <v>0</v>
       </c>
       <c r="R1482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1483">
@@ -85590,7 +85590,7 @@
         <v>1</v>
       </c>
       <c r="R1520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1521">
@@ -87830,7 +87830,7 @@
         <v>0</v>
       </c>
       <c r="R1560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1561">
@@ -90574,7 +90574,7 @@
         <v>0</v>
       </c>
       <c r="R1609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1610">
@@ -93766,7 +93766,7 @@
         <v>2</v>
       </c>
       <c r="R1666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1667">
@@ -96846,7 +96846,7 @@
         <v>0</v>
       </c>
       <c r="R1721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1722">
@@ -100128,7 +100128,7 @@
         <v>0</v>
       </c>
       <c r="R1781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1782">
@@ -101802,7 +101802,7 @@
         <v>1</v>
       </c>
       <c r="R1812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1813">
@@ -102881,7 +102881,9 @@
       <c r="Q1832" t="n">
         <v>0</v>
       </c>
-      <c r="R1832" t="inlineStr"/>
+      <c r="R1832" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1833">
       <c r="A1833" s="2" t="n">
@@ -102933,7 +102935,9 @@
       <c r="Q1833" t="n">
         <v>0</v>
       </c>
-      <c r="R1833" t="inlineStr"/>
+      <c r="R1833" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1834">
       <c r="A1834" s="2" t="n">
@@ -102985,7 +102989,9 @@
       <c r="Q1834" t="n">
         <v>0</v>
       </c>
-      <c r="R1834" t="inlineStr"/>
+      <c r="R1834" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1835">
       <c r="A1835" s="2" t="n">
@@ -103037,7 +103043,9 @@
       <c r="Q1835" t="n">
         <v>0</v>
       </c>
-      <c r="R1835" t="inlineStr"/>
+      <c r="R1835" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1836">
       <c r="A1836" s="2" t="n">
@@ -103089,7 +103097,9 @@
       <c r="Q1836" t="n">
         <v>0</v>
       </c>
-      <c r="R1836" t="inlineStr"/>
+      <c r="R1836" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1837">
       <c r="A1837" s="2" t="n">
@@ -103141,7 +103151,9 @@
       <c r="Q1837" t="n">
         <v>0</v>
       </c>
-      <c r="R1837" t="inlineStr"/>
+      <c r="R1837" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1838">
       <c r="A1838" s="2" t="n">
@@ -103193,7 +103205,9 @@
       <c r="Q1838" t="n">
         <v>0</v>
       </c>
-      <c r="R1838" t="inlineStr"/>
+      <c r="R1838" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1839">
       <c r="A1839" s="2" t="n">
@@ -103245,7 +103259,9 @@
       <c r="Q1839" t="n">
         <v>0</v>
       </c>
-      <c r="R1839" t="inlineStr"/>
+      <c r="R1839" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1840">
       <c r="A1840" s="2" t="n">
@@ -103297,7 +103313,529 @@
       <c r="Q1840" t="n">
         <v>0</v>
       </c>
-      <c r="R1840" t="inlineStr"/>
+      <c r="R1840" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1841" t="n">
+        <v>730.0999755859375</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>741.3499755859375</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>727.2999877929688</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>738.9000244140625</v>
+      </c>
+      <c r="F1841" t="inlineStr"/>
+      <c r="G1841" t="n">
+        <v>2761798</v>
+      </c>
+      <c r="H1841" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1841" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1841" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1841" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1841" t="inlineStr"/>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1842" t="n">
+        <v>738.9000244140625</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>742.6500244140625</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>718.7999877929688</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>722.5999755859375</v>
+      </c>
+      <c r="F1842" t="inlineStr"/>
+      <c r="G1842" t="n">
+        <v>1498360</v>
+      </c>
+      <c r="H1842" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1842" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1842" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1842" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1842" t="inlineStr"/>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1843" t="n">
+        <v>719</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>728.8499755859375</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>718</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>723.9000244140625</v>
+      </c>
+      <c r="F1843" t="inlineStr"/>
+      <c r="G1843" t="n">
+        <v>1657343</v>
+      </c>
+      <c r="H1843" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1843" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1843" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1843" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1843" t="inlineStr"/>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1844" t="n">
+        <v>718.5</v>
+      </c>
+      <c r="C1844" t="n">
+        <v>726.2000122070312</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>715.5</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>722.9500122070312</v>
+      </c>
+      <c r="F1844" t="inlineStr"/>
+      <c r="G1844" t="n">
+        <v>3057761</v>
+      </c>
+      <c r="H1844" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1844" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1844" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1844" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1844" t="inlineStr"/>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1845" t="n">
+        <v>709</v>
+      </c>
+      <c r="C1845" t="n">
+        <v>717</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>708.4000244140625</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>713.5999755859375</v>
+      </c>
+      <c r="F1845" t="inlineStr"/>
+      <c r="G1845" t="n">
+        <v>3210705</v>
+      </c>
+      <c r="H1845" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1845" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1845" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1845" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1845" t="inlineStr"/>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1846" t="n">
+        <v>720</v>
+      </c>
+      <c r="C1846" t="n">
+        <v>737</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>720</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>734.5999755859375</v>
+      </c>
+      <c r="F1846" t="inlineStr"/>
+      <c r="G1846" t="n">
+        <v>1488045</v>
+      </c>
+      <c r="H1846" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1846" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1846" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1846" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1846" t="inlineStr"/>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1847" t="n">
+        <v>735.4000244140625</v>
+      </c>
+      <c r="C1847" t="n">
+        <v>742.4000244140625</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>732.1500244140625</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>735.0499877929688</v>
+      </c>
+      <c r="F1847" t="inlineStr"/>
+      <c r="G1847" t="n">
+        <v>1445358</v>
+      </c>
+      <c r="H1847" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1847" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1847" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1847" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1847" t="inlineStr"/>
+    </row>
+    <row r="1848">
+      <c r="A1848" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1848" t="n">
+        <v>740</v>
+      </c>
+      <c r="C1848" t="n">
+        <v>750</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>734.1500244140625</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>741.7000122070312</v>
+      </c>
+      <c r="F1848" t="inlineStr"/>
+      <c r="G1848" t="n">
+        <v>2058831</v>
+      </c>
+      <c r="H1848" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1848" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1848" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1848" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1848" t="inlineStr"/>
+    </row>
+    <row r="1849">
+      <c r="A1849" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1849" t="n">
+        <v>743.0499877929688</v>
+      </c>
+      <c r="C1849" t="n">
+        <v>753.5999755859375</v>
+      </c>
+      <c r="D1849" t="n">
+        <v>734</v>
+      </c>
+      <c r="E1849" t="n">
+        <v>751.2000122070312</v>
+      </c>
+      <c r="F1849" t="inlineStr"/>
+      <c r="G1849" t="n">
+        <v>3338741</v>
+      </c>
+      <c r="H1849" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1849" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1849" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1849" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1849" t="inlineStr"/>
+    </row>
+    <row r="1850">
+      <c r="A1850" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1850" t="n">
+        <v>750</v>
+      </c>
+      <c r="C1850" t="n">
+        <v>754</v>
+      </c>
+      <c r="D1850" t="n">
+        <v>747.0499877929688</v>
+      </c>
+      <c r="E1850" t="n">
+        <v>750.5499877929688</v>
+      </c>
+      <c r="F1850" t="inlineStr"/>
+      <c r="G1850" t="n">
+        <v>1426099</v>
+      </c>
+      <c r="H1850" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1850" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1850" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1850" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1850" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
